--- a/src/analysis_examples/circadb/results_jtk/cosinor_10502510_lmo4_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10502510_lmo4_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2466215534288151, 0.32208456627168525]</t>
+          <t>[0.24547146950717336, 0.323234650193327]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.605205106145149e-13</v>
+        <v>8.237854842718662e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>4.605205106145149e-13</v>
+        <v>8.237854842718662e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0.1320789704211931</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48137477680077245, 0.5298227627545223]</t>
+          <t>[0.48139731912841244, 0.5298002204268824]</t>
         </is>
       </c>
       <c r="U2" t="n">
